--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_436__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_436__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,43 +5417,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.139754891395569</c:v>
+                  <c:v>-1.139757871627808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9362790584564209</c:v>
+                  <c:v>0.9362731575965881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.29897308349609</c:v>
+                  <c:v>44.29896926879883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.63906860351562</c:v>
+                  <c:v>59.63907241821289</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.22605133056641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.62524604797363</c:v>
+                  <c:v>27.62522888183594</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.9303112030029297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2698965668678284</c:v>
+                  <c:v>0.269895076751709</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.96279907226562</c:v>
+                  <c:v>92.96281433105469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.737810850143433</c:v>
+                  <c:v>1.737810134887695</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>93.24700927734375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.999978065490723</c:v>
+                  <c:v>1.999989867210388</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3763864934444427</c:v>
+                  <c:v>-0.3763923943042755</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>77.32740020751953</c:v>
@@ -5462,16 +5462,16 @@
                   <c:v>95.43354797363281</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.19652557373047</c:v>
+                  <c:v>81.196533203125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>54.4097900390625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.23741912841797</c:v>
+                  <c:v>94.23743438720703</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1665849387645721</c:v>
+                  <c:v>0.166602611541748</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100.4253158569336</c:v>
@@ -5483,7 +5483,7 @@
                   <c:v>91.11543273925781</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.1987245678901672</c:v>
+                  <c:v>-0.1987304538488388</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.31416255235672</c:v>
@@ -5498,16 +5498,16 @@
                   <c:v>0.2867204546928406</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.540980339050293</c:v>
+                  <c:v>1.540991306304932</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.81305694580078</c:v>
+                  <c:v>82.81306457519531</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.3004300892353058</c:v>
+                  <c:v>-0.3004249334335327</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.5927734375</c:v>
+                  <c:v>95.59276580810547</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>96.79460144042969</c:v>
@@ -5516,16 +5516,16 @@
                   <c:v>1.334394693374634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>95.67568206787109</c:v>
+                  <c:v>95.67568969726562</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.169520378112793</c:v>
+                  <c:v>1.169523358345032</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>93.11076354980469</c:v>
+                  <c:v>93.11075592041016</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3817696273326874</c:v>
+                  <c:v>0.381766676902771</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>81.71098327636719</c:v>
@@ -5537,10 +5537,10 @@
                   <c:v>26.47951126098633</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92.93034362792969</c:v>
+                  <c:v>92.93035125732422</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2377252727746964</c:v>
+                  <c:v>0.2376958131790161</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>89.17127227783203</c:v>
@@ -5549,16 +5549,16 @@
                   <c:v>95.69477081298828</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.558990478515625</c:v>
+                  <c:v>0.5589653849601746</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.2718259394168854</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96.23379516601562</c:v>
+                  <c:v>96.23377227783203</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7503325939178467</c:v>
+                  <c:v>0.7503252029418945</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.339579701423645</c:v>
@@ -5567,55 +5567,55 @@
                   <c:v>91.71349334716797</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>83.604248046875</c:v>
+                  <c:v>83.60425567626953</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5394853353500366</c:v>
+                  <c:v>0.5394786596298218</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.20487213134766</c:v>
+                  <c:v>94.20486450195312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>94.90933990478516</c:v>
+                  <c:v>94.90933227539062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>94.9476318359375</c:v>
+                  <c:v>94.94763946533203</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.3720748722553253</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>98.39183807373047</c:v>
+                  <c:v>98.39183044433594</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>95.76953125</c:v>
+                  <c:v>95.76953887939453</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01476858649402857</c:v>
+                  <c:v>0.01476269494742155</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>93.30841064453125</c:v>
+                  <c:v>93.30841827392578</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.4985279738903046</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.3958533406257629</c:v>
+                  <c:v>0.3958445191383362</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.174575090408325</c:v>
+                  <c:v>1.174577951431274</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.114804983139038</c:v>
+                  <c:v>2.11479377746582</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>90.99945068359375</c:v>
+                  <c:v>90.99945831298828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.09821717441082001</c:v>
+                  <c:v>0.09824074059724808</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>56.319091796875</c:v>
+                  <c:v>56.31908798217773</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>2.322527647018433</c:v>
@@ -5627,61 +5627,61 @@
                   <c:v>99.70964813232422</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>98.34413909912109</c:v>
+                  <c:v>98.34412384033203</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>86.42440795898438</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>95.00560760498047</c:v>
+                  <c:v>95.00559997558594</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.5525329113006592</c:v>
+                  <c:v>0.552519679069519</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.89754486083984</c:v>
+                  <c:v>93.89753723144531</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>101.9965438842773</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>78.50168609619141</c:v>
+                  <c:v>78.50169372558594</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>88.87995147705078</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.6486682891845703</c:v>
+                  <c:v>0.6486800909042358</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43.80656814575195</c:v>
+                  <c:v>43.80656433105469</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.64899444580078</c:v>
+                  <c:v>94.64900970458984</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>62.40296936035156</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.47657299041748</c:v>
+                  <c:v>1.476608276367188</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3026532828807831</c:v>
+                  <c:v>0.3026503622531891</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>98.72232818603516</c:v>
+                  <c:v>98.72232055664062</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.1675813049077988</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.7814912796020508</c:v>
+                  <c:v>0.7814942598342896</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>96.48805999755859</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.862182080745697</c:v>
+                  <c:v>0.8621805906295776</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>95.05962371826172</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.139754891395569</v>
+        <v>-1.139757871627808</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9362790584564209</v>
+        <v>0.9362731575965881</v>
       </c>
       <c r="G3">
         <v>111</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>44.29897308349609</v>
+        <v>44.29896926879883</v>
       </c>
       <c r="G4">
         <v>111</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>59.63906860351562</v>
+        <v>59.63907241821289</v>
       </c>
       <c r="G5">
         <v>111</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>27.62524604797363</v>
+        <v>27.62522888183594</v>
       </c>
       <c r="G7">
         <v>111</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2698965668678284</v>
+        <v>0.269895076751709</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>92.96279907226562</v>
+        <v>92.96281433105469</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.737810850143433</v>
+        <v>1.737810134887695</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.999978065490723</v>
+        <v>1.999989867210388</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.3763864934444427</v>
+        <v>-0.3763923943042755</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>81.19652557373047</v>
+        <v>81.196533203125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>94.23741912841797</v>
+        <v>94.23743438720703</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1665849387645721</v>
+        <v>0.166602611541748</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.1987245678901672</v>
+        <v>-0.1987304538488388</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.540980339050293</v>
+        <v>1.540991306304932</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>82.81305694580078</v>
+        <v>82.81306457519531</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.3004300892353058</v>
+        <v>-0.3004249334335327</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>95.5927734375</v>
+        <v>95.59276580810547</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>95.67568206787109</v>
+        <v>95.67568969726562</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.169520378112793</v>
+        <v>1.169523358345032</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>93.11076354980469</v>
+        <v>93.11075592041016</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.3817696273326874</v>
+        <v>0.381766676902771</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>92.93034362792969</v>
+        <v>92.93035125732422</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.2377252727746964</v>
+        <v>0.2376958131790161</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.558990478515625</v>
+        <v>0.5589653849601746</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>96.23379516601562</v>
+        <v>96.23377227783203</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.7503325939178467</v>
+        <v>0.7503252029418945</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>83.604248046875</v>
+        <v>83.60425567626953</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.5394853353500366</v>
+        <v>0.5394786596298218</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>94.20487213134766</v>
+        <v>94.20486450195312</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>94.90933990478516</v>
+        <v>94.90933227539062</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>94.9476318359375</v>
+        <v>94.94763946533203</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>98.39183807373047</v>
+        <v>98.39183044433594</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>95.76953125</v>
+        <v>95.76953887939453</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.01476858649402857</v>
+        <v>0.01476269494742155</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>93.30841064453125</v>
+        <v>93.30841827392578</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.3958533406257629</v>
+        <v>0.3958445191383362</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.174575090408325</v>
+        <v>1.174577951431274</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2.114804983139038</v>
+        <v>2.11479377746582</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>90.99945068359375</v>
+        <v>90.99945831298828</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.09821717441082001</v>
+        <v>0.09824074059724808</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>56.319091796875</v>
+        <v>56.31908798217773</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>98.34413909912109</v>
+        <v>98.34412384033203</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>95.00560760498047</v>
+        <v>95.00559997558594</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.5525329113006592</v>
+        <v>0.552519679069519</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>93.89754486083984</v>
+        <v>93.89753723144531</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>78.50168609619141</v>
+        <v>78.50169372558594</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.6486682891845703</v>
+        <v>0.6486800909042358</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>43.80656814575195</v>
+        <v>43.80656433105469</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>94.64899444580078</v>
+        <v>94.64900970458984</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.47657299041748</v>
+        <v>1.476608276367188</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.3026532828807831</v>
+        <v>0.3026503622531891</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>98.72232818603516</v>
+        <v>98.72232055664062</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.7814912796020508</v>
+        <v>0.7814942598342896</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.862182080745697</v>
+        <v>0.8621805906295776</v>
       </c>
     </row>
     <row r="91" spans="1:6">
